--- a/data/books.xlsx
+++ b/data/books.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="178">
   <si>
     <t>Title</t>
   </si>
@@ -48,113 +48,557 @@
     <t>Writer</t>
   </si>
   <si>
-    <t>2024-07-01</t>
-  </si>
-  <si>
     <t>SeriesNumber</t>
   </si>
   <si>
-    <t>2024-07-24</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
-    <t>강아지 시험</t>
-  </si>
-  <si>
-    <t>이묘신</t>
-  </si>
-  <si>
-    <t>책벌레 공부벌레 일벌레</t>
-  </si>
-  <si>
-    <t>c4a45fb0</t>
-  </si>
-  <si>
-    <t>99c47682</t>
-  </si>
-  <si>
-    <t>2019-07-30</t>
-  </si>
-  <si>
-    <t>해와나무</t>
-  </si>
-  <si>
     <t>한국어</t>
   </si>
   <si>
-    <t>이야기 반짝</t>
-  </si>
-  <si>
-    <t>9788962681857</t>
-  </si>
-  <si>
-    <t>강아지를 너무나 키우고 싶어하는 선후가 강아지 키우는 걸 반대하는 엄마를 설득하고, 강아지 시험을 통과하기 위해 공부를 하고, 미나와 함께 강아지 돌보기 실습을 하면서 강아지 키우는 법을 차츰 알아가는 책이다. 이 책은 반려동물이 보기에 예쁘다고 혹은 친구가 키우니까 나도 키우겠다며 반려동물을 무작정 키우자고 조르는 어린이들이 보면 정말 좋은 책이다.</t>
-  </si>
-  <si>
-    <t>동심원</t>
-  </si>
-  <si>
-    <t>푸른책들</t>
-  </si>
-  <si>
-    <t>9788957982365</t>
-  </si>
-  <si>
-    <t>시인은 아이의 눈과 입을 빌어 아빠에게서 배려와 느림의 철학을, 할머니에게서 따뜻한 마음과 자연의 소중함을, 엄마에게서 위로와 격려를, 이모에게서 긍정적인 사고를 이야기한다.</t>
-  </si>
-  <si>
     <t>2024-07-25</t>
   </si>
   <si>
-    <t>68e75fa3</t>
-  </si>
-  <si>
-    <t>김정희 할머니 길</t>
-  </si>
-  <si>
-    <t>초록달팽이 동화</t>
-  </si>
-  <si>
-    <t>초록달팽이</t>
-  </si>
-  <si>
-    <t>2023-10-15</t>
-  </si>
-  <si>
-    <t>9791193400005</t>
-  </si>
-  <si>
-    <t>초록달팽이에서 처음으로 나온 동화책이다. 그동안 동시, 동화, 그림책 등 여러 장르를 넘나들며 독자들에게 많은 관심과 사랑을 받아 온 이묘신 작가가 자신의 경험을 한 편의 따뜻하고 아름다운 이야기로 꾸몄다."</t>
-  </si>
-  <si>
-    <t>f76eb274</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>날아라, 씨앗 폭탄!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가로세로그림책</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초록개구리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024-05-25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9791157822973</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>달달숲 마을엔 나무가 없다. 사람들이 모조리 베어 가서 그루터기만 가득하다. 어느 날, 어른 동물들은 ‘폭탄’을 만들기로 한다. 그 소식을 엿들은 아기 여우는 헐레벌떡 친구들에게 달려간다. 아기 동물들은 어른들이 전쟁을 벌일 거라는 생각에 그 ‘폭탄’을 찾아서 꼭꼭 숨긴다. 그런데… 참 이상해하다. 며칠 뒤 ‘폭탄’을 숨긴 곳에 파릇파릇한 싹이 돋아난 것이다. 이 수상한 폭탄의 정체는 무엇일까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>1721ac5a</t>
+  </si>
+  <si>
+    <t>2024-07-19</t>
+  </si>
+  <si>
+    <t>Albert's Tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jenni Desmond</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Walker Books</t>
+  </si>
+  <si>
+    <t>2017-04-01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9781406362497</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50a54f59</t>
+  </si>
+  <si>
+    <t>Cindy Sherman: The Complete Untitled Film Stills</t>
+  </si>
+  <si>
+    <t>Cindy Sherman</t>
+  </si>
+  <si>
+    <t>Museum of Modern Art</t>
+  </si>
+  <si>
+    <t>2003-10-02</t>
+  </si>
+  <si>
+    <t>9780870705076</t>
+  </si>
+  <si>
+    <t>ed87aa02</t>
+  </si>
+  <si>
+    <t>2024-07-20</t>
+  </si>
+  <si>
+    <t>On The Camino</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Fantagraphics Books</t>
+  </si>
+  <si>
+    <t>2017-05-17</t>
+  </si>
+  <si>
+    <t>9781683960218</t>
+  </si>
+  <si>
+    <t>Northwestern Spain, observed with the eye of an artist, chronicling both the good (people, conversations) and the bad (blisters, bedbugs) he encountered on his journey. Full of quiet incidents, odd encounters, small triumphs, and the occasional setback, On the Camino is the first implicitly autobiographical long-form work by a master cartoonist.</t>
+  </si>
+  <si>
+    <t>e9e9aaa3</t>
+  </si>
+  <si>
+    <t>2024-06-04</t>
+  </si>
+  <si>
+    <t>푸틴의 러시아</t>
+  </si>
+  <si>
+    <t>대릴 커닝엄</t>
+  </si>
+  <si>
+    <t>어크로스</t>
+  </si>
+  <si>
+    <t>2022-05-26</t>
+  </si>
+  <si>
+    <t>9791167740465</t>
+  </si>
+  <si>
+    <t>블라디미르 푸틴을 다룬 가장 간결하고 신랄한 그래픽 논픽션. 냉전 말기의 개혁개방, 소련 해체 후의 정경유착, 21세기 지정학적 분쟁 등 러시아의 굴곡진 현대사를 타고 푸틴이 무소불위의 독재자로 등극하는 과정을 생생히 펼쳐 보인다. 전쟁, 암살, 테러, 사이버 공격, 자금 세탁 등 푸틴을 둘러싼 갖가지 스캔들을 조목조목 지적한다.</t>
+  </si>
+  <si>
+    <t>6c02eae3</t>
+  </si>
+  <si>
+    <t>2024-06-09</t>
+  </si>
+  <si>
+    <t>IN NÜRNBERG WIMMELTS</t>
+  </si>
+  <si>
+    <t>Kuka Brigitte</t>
+  </si>
+  <si>
+    <t>Deutsch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Velle Verlag / Hallo Ludwigsburg</t>
+  </si>
+  <si>
+    <t>2023-09-16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9783982349138</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a84cdc35</t>
+  </si>
+  <si>
+    <t>2024-06-11</t>
+  </si>
+  <si>
+    <t>Andreas Gursky: Fotografen 1984-1993</t>
+  </si>
+  <si>
+    <t>Andreas Gursky</t>
+  </si>
+  <si>
+    <t>Deutsch</t>
+  </si>
+  <si>
+    <t>Schirmer / Mosel</t>
+  </si>
+  <si>
+    <t>1994-01-01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9783888147173</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bdb4db4f</t>
+  </si>
+  <si>
+    <t>2024-06-16</t>
+  </si>
+  <si>
+    <t>Cornelius</t>
+  </si>
+  <si>
+    <t>Leo Lionni</t>
+  </si>
+  <si>
+    <t>Beltz &amp; Gelberg</t>
+  </si>
+  <si>
+    <t>2006-08-18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9783407760395</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d2ef3485</t>
+  </si>
+  <si>
+    <t>Naturführer Wiesenblumen: Der handliche Begleiter in der Natur</t>
+  </si>
+  <si>
+    <t>Christine Jaitner</t>
+  </si>
+  <si>
+    <t>KOMPASS</t>
+  </si>
+  <si>
+    <t>2022-04-20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9783991215387</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3b0c6f38</t>
+  </si>
+  <si>
+    <t>2024-06-26</t>
+  </si>
+  <si>
+    <t>NEW YORK</t>
+  </si>
+  <si>
+    <t>Thomas Hoepker</t>
+  </si>
+  <si>
+    <t>English, Deutsch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>teNeues Publishing UK Ltd</t>
+  </si>
+  <si>
+    <t>2024-04-26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9783961715589</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9783894502812</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1991-00-00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benedikt Taschen Verlag Berlin GmbH</t>
+  </si>
+  <si>
+    <t>Chris Achilleos · Araida·Philip M. Auwy · Olivia De Berardinis · Masahiko Fujii · Noboru Ikeuchi · Yasuhiro Kagami · Hideaki Kodama · Junichi Murayamy · Keiji Nakagawa · Seiji Nakamura · Noboru Nonaka · Oshikuni Okubo · Sadao Sato · Boris Vallejo · Harumi Yamaguchi · Akira Yokoyama · Zappy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEXY DREAMS</t>
+  </si>
+  <si>
+    <t>2024-07-03</t>
+  </si>
+  <si>
+    <t>2008f3a4</t>
+  </si>
+  <si>
+    <t>9791168611337</t>
+  </si>
+  <si>
+    <t>2023-02-20</t>
+  </si>
+  <si>
+    <t>산지니</t>
+  </si>
+  <si>
+    <t>권종호</t>
+  </si>
+  <si>
+    <t>고독사는 사회적 타살입니다</t>
+  </si>
+  <si>
+    <t>ad74cee0</t>
+  </si>
+  <si>
+    <t>9780241003008</t>
+  </si>
+  <si>
+    <t>1994-09-29</t>
+  </si>
+  <si>
+    <t>Puffin</t>
+  </si>
+  <si>
+    <t>Eric Carle</t>
+  </si>
+  <si>
+    <t>The Very Hungry Caterpillar</t>
+  </si>
+  <si>
+    <t>2024-07-02</t>
+  </si>
+  <si>
+    <t>8e77f0fa</t>
+  </si>
+  <si>
+    <t>9783870383596</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2003-09-29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anabas</t>
+  </si>
+  <si>
+    <t>Pavel Khoroshilov · Klaus Klemp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nackt für Stalin: Körperbilder in der russischen Fotografie der 20er und 30er Jahre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c3b20dd3</t>
+  </si>
+  <si>
+    <t>9783894059514</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012-02-22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frederking &amp; Thaler</t>
+  </si>
+  <si>
+    <t>David Hall</t>
+  </si>
+  <si>
+    <t>Unbekannte Kaltwasserwelten: In den Tiefen des Nordpazifiks</t>
+  </si>
+  <si>
+    <t>3857e934</t>
+  </si>
+  <si>
+    <t>9783468209956</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012-08-06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Langenscheidt</t>
+  </si>
+  <si>
+    <t>Emma Dodd</t>
+  </si>
+  <si>
+    <t>Ich hab dich lieb</t>
+  </si>
+  <si>
+    <t>2024-07-23</t>
+  </si>
+  <si>
+    <t>d97465d1</t>
+  </si>
+  <si>
+    <t>9783446275980</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-02-20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hanser</t>
+  </si>
+  <si>
+    <t>Nils Freytag · Silke Schlichtmann · Maja Bohn · Erhard Dietl · Julia Dürr · Cornelia Funke · Susanne Göhlich · Sybille Hein · Felicitas Horstschäfer · Ulf K. · Regina Kehn · Ute Krause · Daniela Kulot · Paul Maar · Ulrike Möltgen · Kathrin Schärer · Axel Scheffler · Marei Schweitzer · Susanne Straßer · Julie Völk · Sabine Wilharm · Henrike Wilson</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lesen ist doof</t>
+  </si>
+  <si>
+    <t>648ee7f1</t>
+  </si>
+  <si>
+    <t>9783551167415</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009-04-21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carlsen</t>
+  </si>
+  <si>
+    <t>Jutta Bauer</t>
+  </si>
+  <si>
+    <t>Emma isst</t>
+  </si>
+  <si>
+    <t>9209c8c2</t>
+  </si>
+  <si>
+    <t>9780684144160</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1976-05-00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEACOCK PRESS/BANTAM BOOKS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frank Frazetta · Betty Ballantine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Fantastic Art of Frank Frazetta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-07-27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ac0f5540</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9788958830931</t>
+  </si>
+  <si>
+    <t>2011-07-08</t>
+  </si>
+  <si>
+    <t>바움</t>
+  </si>
+  <si>
+    <t>장문삼</t>
+  </si>
+  <si>
+    <t>HIMALAYA</t>
+  </si>
+  <si>
+    <t>2024-07-10</t>
+  </si>
+  <si>
+    <t>52a4c9b9</t>
+  </si>
+  <si>
+    <t>9788862083959</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-05-26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damiani</t>
+  </si>
+  <si>
+    <t>JR</t>
+  </si>
+  <si>
+    <t>The Ghost of Ellis Island</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>9764ba2f</t>
+  </si>
+  <si>
+    <t>9783775714518</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001-04-29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hatje Cantz</t>
+  </si>
+  <si>
+    <t>Shaun Caley Regen · Richard Prince</t>
+  </si>
+  <si>
+    <t>RICHARD PRINCE: WOMEN</t>
+  </si>
+  <si>
+    <t>33166751</t>
+  </si>
+  <si>
+    <t>9784904120002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007-01-01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sokyu-sha</t>
+  </si>
+  <si>
+    <t>Sakaguchi Tomoyuki</t>
+  </si>
+  <si>
+    <t>HOME</t>
+  </si>
+  <si>
+    <t>4743e164</t>
+  </si>
+  <si>
+    <t>9783863354558</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-06-23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verlag der Buchhandlung Walther Konig</t>
+  </si>
+  <si>
+    <t>Hansjörg Mayer</t>
+  </si>
+  <si>
+    <t>Typo: Printing and Typographic Works from the 50s and 60s</t>
+  </si>
+  <si>
+    <t>150da754</t>
+  </si>
+  <si>
+    <t>9781880146040</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1992-05-02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matthew Marks Gallery</t>
+  </si>
+  <si>
+    <t>Georg Baselitz</t>
+  </si>
+  <si>
+    <t>Georg Baselitz: Pastels Watercolors Drawings</t>
+  </si>
+  <si>
+    <t>7fb2dd0c</t>
   </si>
 </sst>
 </file>
@@ -164,7 +608,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,13 +632,35 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -209,16 +675,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -232,8 +695,32 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="16.5"/>
@@ -547,8 +1034,8 @@
     <col min="3" max="3" width="26.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" customWidth="1"/>
     <col min="5" max="5" width="16.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="2" customWidth="1"/>
     <col min="9" max="9" width="18" style="2" customWidth="1"/>
     <col min="10" max="10" width="22.125" style="2" customWidth="1"/>
@@ -558,194 +1045,777 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="33">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="7" customFormat="1" ht="27">
+      <c r="A2" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10">
+        <v>52</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="40.5">
+      <c r="A3" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10">
+        <v>272</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="27">
+      <c r="A4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10">
+        <v>84</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="7" customFormat="1" ht="40.5">
+      <c r="A5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="13">
+        <v>176</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="7" customFormat="1" ht="13.5">
+      <c r="A6" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="13">
+        <v>120</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="7" customFormat="1" ht="13.5">
+      <c r="A7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10">
+        <v>168</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="7" customFormat="1" ht="27">
+      <c r="A8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10">
+        <v>16</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="7" customFormat="1" ht="27">
+      <c r="A9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10">
+        <v>128</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="7" customFormat="1" ht="13.5">
+      <c r="A10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10">
+        <v>32</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="7" customFormat="1" ht="27">
+      <c r="A11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10">
+        <v>80</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="7" customFormat="1" ht="27">
+      <c r="A12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10">
+        <v>136</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="7" customFormat="1" ht="13.5">
+      <c r="A13" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10">
+        <v>24</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="7" customFormat="1" ht="13.5">
+      <c r="A14" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10">
+        <v>192</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="7" customFormat="1" ht="270">
+      <c r="A15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10">
+        <v>80</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="7" customFormat="1" ht="13.5">
+      <c r="A16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10">
+        <v>160</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="7" customFormat="1" ht="13.5">
+      <c r="A17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10">
+        <v>32</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="7" customFormat="1" ht="27">
+      <c r="A18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10">
+        <v>164</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="7" customFormat="1" ht="13.5">
+      <c r="A19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10">
+        <v>189</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="7" customFormat="1" ht="13.5">
+      <c r="A20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="13">
+        <v>16</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="1:12" s="7" customFormat="1" ht="310.5">
+      <c r="A21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="13">
+        <v>48</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" spans="1:12" s="7" customFormat="1" ht="13.5">
+      <c r="A22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="13">
+        <v>24</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L22" s="11"/>
+    </row>
+    <row r="23" spans="1:12" s="7" customFormat="1" ht="27">
+      <c r="A23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="115.5">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="8">
-        <v>5</v>
-      </c>
-      <c r="G2" s="8">
-        <v>80</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="66">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="8">
-        <v>9</v>
-      </c>
-      <c r="G3" s="8">
-        <v>64</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="8">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8">
-        <v>76</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="8">
-        <v>17</v>
-      </c>
-      <c r="G5" s="8">
-        <v>44</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="C23" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10">
+        <v>160</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="1:12" s="7" customFormat="1" ht="40.5">
+      <c r="A24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10">
+        <v>128</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" spans="1:12" s="7" customFormat="1" ht="40.5">
+      <c r="A25" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="14">
+        <v>96</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L25" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/books.xlsx
+++ b/data/books.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="269">
   <si>
     <t>Title</t>
   </si>
@@ -884,6 +884,70 @@
   </si>
   <si>
     <t>d4aa0e35</t>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>350a5aa8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-07-31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ansel Adams: Classic Images</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ansel Adams</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Little, Brown and Company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2003-00-00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0821216295</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3987d4f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fine Nude Art</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manfred Baumann</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deutsch, English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verlag 66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005-09-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>390221130X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1310,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="13.5"/>
@@ -2389,7 +2453,7 @@
         <v>192</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>186</v>
@@ -2449,7 +2513,7 @@
         <v>104</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>193</v>
@@ -2459,6 +2523,67 @@
       </c>
       <c r="K37" s="1" t="s">
         <v>238</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="27">
+      <c r="A38" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4">
+        <v>111</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="1" customFormat="1" ht="27">
+      <c r="A39" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4">
+        <v>160</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/data/books.xlsx
+++ b/data/books.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="315">
   <si>
     <t>Title</t>
   </si>
@@ -947,6 +947,164 @@
   </si>
   <si>
     <t>390221130X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ac6b8986</t>
+  </si>
+  <si>
+    <t>2022-06-20</t>
+  </si>
+  <si>
+    <t>바람계곡의 나우시카 1</t>
+  </si>
+  <si>
+    <t>미야자키 하야오</t>
+  </si>
+  <si>
+    <t>바람계곡의 나우시카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학산문화사</t>
+  </si>
+  <si>
+    <t>3562d83c</t>
+  </si>
+  <si>
+    <t>바람계곡의 나우시카 2</t>
+  </si>
+  <si>
+    <t>학산문화사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08dc72a6</t>
+  </si>
+  <si>
+    <t>2022-06-21</t>
+  </si>
+  <si>
+    <t>권위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>편집부</t>
+  </si>
+  <si>
+    <t>인문 잡지 한편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민음사</t>
+  </si>
+  <si>
+    <t>ae0c021f</t>
+  </si>
+  <si>
+    <t>2022-06-22</t>
+  </si>
+  <si>
+    <t>기적의 취업면접 100문 100답</t>
+  </si>
+  <si>
+    <t>김형관 · 밸러스 에듀 리서치 팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기적의 취업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조선북스</t>
+  </si>
+  <si>
+    <t>4265e8aa</t>
+  </si>
+  <si>
+    <t>바람계곡의 나우시카 3</t>
+  </si>
+  <si>
+    <t>dc017d09</t>
+  </si>
+  <si>
+    <t>2022-06-23</t>
+  </si>
+  <si>
+    <t>바람계곡의 나우시카 4</t>
+  </si>
+  <si>
+    <t>ab064d9f</t>
+  </si>
+  <si>
+    <t>2022-06-24</t>
+  </si>
+  <si>
+    <t>바람계곡의 나우시카 5</t>
+  </si>
+  <si>
+    <t>320f1c25</t>
+  </si>
+  <si>
+    <t>바람계곡의 나우시카 6</t>
+  </si>
+  <si>
+    <t>9e41915b</t>
+  </si>
+  <si>
+    <t>바람계곡의 나우시카 7 (완결)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2004-10-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9788952961556</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9788952961570</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-09-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9788937491498</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-02-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9788966661176</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9788952961587</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9788952961594</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9788952961600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9788952961617</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9788952961624</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -957,7 +1115,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1006,6 +1164,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1030,8 +1196,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1076,8 +1245,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1374,10 +1544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="13.5"/>
@@ -1435,1154 +1605,1476 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="27">
+    <row r="2" spans="1:12" customFormat="1" ht="16.5">
       <c r="A2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>200</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" customFormat="1" ht="16.5">
+      <c r="A3" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>200</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" customFormat="1" ht="16.5">
+      <c r="A4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" s="4">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4">
+        <v>220</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" customFormat="1" ht="27">
+      <c r="A5" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
+        <v>144</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" customFormat="1" ht="16.5">
+      <c r="A6" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4">
+        <v>200</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" customFormat="1" ht="16.5">
+      <c r="A7" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4">
+        <v>200</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" customFormat="1" ht="16.5">
+      <c r="A8" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="4">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4">
+        <v>200</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" customFormat="1" ht="16.5">
+      <c r="A9" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F9" s="4">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4">
+        <v>200</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" customFormat="1" ht="16.5">
+      <c r="A10" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F10" s="4">
+        <v>7</v>
+      </c>
+      <c r="G10" s="4">
+        <v>200</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="27">
+      <c r="A11" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4">
-        <v>52</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="40.5">
-      <c r="A3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4">
-        <v>272</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="27">
-      <c r="A4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4">
-        <v>84</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="40.5">
-      <c r="A5" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="7">
-        <v>176</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1">
-      <c r="A6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="7">
-        <v>120</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1">
-      <c r="A7" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="7">
-        <v>228</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="27">
-      <c r="A8" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4">
-        <v>104</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1">
-      <c r="A9" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="7">
-        <v>512</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1">
-      <c r="A10" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4">
-        <v>64</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1">
-      <c r="A11" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="7">
-        <v>64</v>
+      <c r="G11" s="4">
+        <v>52</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="40.5">
       <c r="A12" s="1" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4">
-        <v>122</v>
+        <v>272</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="27">
       <c r="A13" s="1" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="1" customFormat="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="40.5">
       <c r="A14" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="4">
-        <v>64</v>
+      <c r="G14" s="7">
+        <v>176</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="4">
-        <v>168</v>
+      <c r="G15" s="7">
+        <v>120</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="27">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="1" customFormat="1">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>243</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>36</v>
+        <v>242</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>37</v>
+        <v>241</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="4">
-        <v>16</v>
+      <c r="G16" s="7">
+        <v>228</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>160</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="27">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>48</v>
+        <v>250</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="4">
-        <v>32</v>
+      <c r="G18" s="7">
+        <v>512</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>49</v>
+        <v>249</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" ht="27">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="1" customFormat="1">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>247</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>51</v>
+        <v>246</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" ht="27">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="1" customFormat="1">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="F20" s="4"/>
-      <c r="G20" s="4">
-        <v>136</v>
+      <c r="G20" s="7">
+        <v>64</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1">
-      <c r="A21" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>74</v>
+      <c r="A21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="5"/>
+        <v>137</v>
+      </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4">
-        <v>24</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>16</v>
+        <v>122</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>69</v>
+        <v>135</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1">
-      <c r="A22" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>61</v>
+      <c r="A22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="5"/>
+        <v>137</v>
+      </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4">
-        <v>192</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>12</v>
+        <v>76</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="1" customFormat="1" ht="270">
+        <v>135</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="1" customFormat="1">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4">
-        <v>80</v>
-      </c>
-      <c r="H23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" ht="27">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F24" s="4">
-        <v>8</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F24" s="4"/>
       <c r="G24" s="4">
-        <v>16</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>156</v>
+        <v>168</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="1" customFormat="1">
+        <v>31</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="1" customFormat="1" ht="27">
       <c r="A25" s="1" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>200</v>
+        <v>37</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4">
+        <v>16</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="1" customFormat="1">
+    </row>
+    <row r="26" spans="1:12" s="1" customFormat="1" ht="27">
       <c r="A26" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>203</v>
+        <v>42</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4">
-        <v>32</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>16</v>
+        <v>128</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="1" customFormat="1" ht="27">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="1" customFormat="1">
       <c r="A27" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4">
+        <v>32</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="1" customFormat="1">
+    </row>
+    <row r="28" spans="1:12" s="1" customFormat="1" ht="27">
       <c r="A28" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>209</v>
+        <v>52</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4">
-        <v>189</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>16</v>
+        <v>80</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="1" customFormat="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="1" customFormat="1" ht="27">
       <c r="A29" s="1" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>212</v>
+        <v>57</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4">
-        <v>16</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>176</v>
+        <v>136</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="1:12" s="1" customFormat="1" ht="310.5">
-      <c r="A30" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>83</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="1" customFormat="1">
+      <c r="A30" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>215</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E30" s="5"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="L30" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="31" spans="1:12" s="1" customFormat="1">
-      <c r="A31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>83</v>
+      <c r="A31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>218</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E31" s="5"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="1:12" s="1" customFormat="1" ht="27">
+        <v>65</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="1" customFormat="1" ht="270">
       <c r="A32" s="1" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="L32" s="5"/>
-    </row>
-    <row r="33" spans="1:12" s="1" customFormat="1" ht="40.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="1" customFormat="1" ht="27">
       <c r="A33" s="1" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F33" s="4"/>
+        <v>198</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F33" s="4">
+        <v>8</v>
+      </c>
       <c r="G33" s="4">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="L33" s="5"/>
-    </row>
-    <row r="34" spans="1:12" s="1" customFormat="1" ht="40.5">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="1" customFormat="1">
       <c r="A34" s="1" t="s">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>182</v>
+        <v>92</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="L34" s="5"/>
-    </row>
-    <row r="35" spans="1:12" s="1" customFormat="1" ht="27">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="1" customFormat="1">
       <c r="A35" s="1" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>184</v>
+        <v>15</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>186</v>
+        <v>17</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="1" customFormat="1" ht="27">
       <c r="A36" s="1" t="s">
-        <v>187</v>
+        <v>18</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>184</v>
+        <v>15</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>188</v>
+        <v>19</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="1" customFormat="1">
       <c r="A37" s="1" t="s">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>253</v>
+        <v>16</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>193</v>
+        <v>24</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="27">
+        <v>211</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="1" customFormat="1">
       <c r="A38" s="1" t="s">
-        <v>254</v>
+        <v>90</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>256</v>
+        <v>89</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E38" s="1"/>
+        <v>212</v>
+      </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>258</v>
+        <v>176</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>259</v>
+        <v>88</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="1" customFormat="1" ht="27">
+        <v>214</v>
+      </c>
+      <c r="L38" s="5"/>
+    </row>
+    <row r="39" spans="1:12" s="1" customFormat="1" ht="310.5">
       <c r="A39" s="1" t="s">
-        <v>262</v>
+        <v>87</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>263</v>
+        <v>86</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4">
+        <v>48</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="1:12" s="1" customFormat="1">
+      <c r="A40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4">
+        <v>24</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L40" s="5"/>
+    </row>
+    <row r="41" spans="1:12" s="1" customFormat="1" ht="27">
+      <c r="A41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4">
         <v>160</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H41" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L41" s="5"/>
+    </row>
+    <row r="42" spans="1:12" s="1" customFormat="1" ht="40.5">
+      <c r="A42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4">
+        <v>128</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="L42" s="5"/>
+    </row>
+    <row r="43" spans="1:12" s="1" customFormat="1" ht="40.5">
+      <c r="A43" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4">
+        <v>96</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L43" s="5"/>
+    </row>
+    <row r="44" spans="1:12" s="1" customFormat="1" ht="27">
+      <c r="A44" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4">
+        <v>192</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="1" customFormat="1" ht="27">
+      <c r="A45" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4">
+        <v>149</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="1" customFormat="1">
+      <c r="A46" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4">
+        <v>104</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="27">
+      <c r="A47" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4">
+        <v>111</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="1" customFormat="1" ht="27">
+      <c r="A48" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4">
+        <v>160</v>
+      </c>
+      <c r="H48" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I48" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J48" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="K48" s="1" t="s">
         <v>268</v>
       </c>
     </row>

--- a/data/books.xlsx
+++ b/data/books.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="357">
   <si>
     <t>Title</t>
   </si>
@@ -441,10 +441,6 @@
     <t>Torch Press</t>
   </si>
   <si>
-    <t>日本語, English</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tokuko Ushioda</t>
   </si>
   <si>
@@ -552,10 +548,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>English, Deutsch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2024-04-26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -640,10 +632,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Français, English, Deutsch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Schirmer/Mosel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -934,10 +922,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Deutsch, English</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Verlag 66</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1105,6 +1089,176 @@
   </si>
   <si>
     <t>9788952961624</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-08-25</t>
+  </si>
+  <si>
+    <t>Topi si Ziko</t>
+  </si>
+  <si>
+    <t>Erlangga For Kids</t>
+  </si>
+  <si>
+    <t>Di mana kalian bisa menemukan persegi panjang?</t>
+  </si>
+  <si>
+    <t>Koen Setyawan</t>
+  </si>
+  <si>
+    <t>PT Gramedia Pustaka Utama</t>
+  </si>
+  <si>
+    <t>여중생A 1</t>
+  </si>
+  <si>
+    <t>허5파6</t>
+  </si>
+  <si>
+    <t>비아북</t>
+  </si>
+  <si>
+    <t>2022-08-26</t>
+  </si>
+  <si>
+    <t>여중생A 2</t>
+  </si>
+  <si>
+    <t>여중생A 3</t>
+  </si>
+  <si>
+    <t>여중생A 4</t>
+  </si>
+  <si>
+    <t>2022-08-27</t>
+  </si>
+  <si>
+    <t>2008-03-00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahasa Indonesia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009-00-00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f3737f3f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9789790751026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75cab564</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a3508b22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3a59da98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4d5eea0e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d33a7fad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-03-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9791186712351</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9791186712368</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9791186712474</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9791186712467</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9791186712375</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여중생A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여중생A 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a43d4f3b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최재천의 곤충사회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-08-06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4f063a96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-02-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9791170402527</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열림원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최재천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ayu Prameswary · Edith Natasha · Aaron Randy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本語 · English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>English · Deutsch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Français · English · Deutsch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deutsch · English</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1202,7 +1356,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1244,6 +1398,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1544,7 +1704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1607,19 +1767,19 @@
     </row>
     <row r="2" spans="1:12" customFormat="1" ht="16.5">
       <c r="A2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
@@ -1628,34 +1788,34 @@
         <v>200</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" customFormat="1" ht="16.5">
       <c r="A3" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
@@ -1664,34 +1824,34 @@
         <v>200</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" customFormat="1" ht="16.5">
       <c r="A4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="F4" s="4">
         <v>6</v>
@@ -1700,68 +1860,68 @@
         <v>220</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" customFormat="1" ht="27">
       <c r="A5" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4">
         <v>144</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:12" customFormat="1" ht="16.5">
       <c r="A6" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F6" s="4">
         <v>3</v>
@@ -1770,34 +1930,34 @@
         <v>200</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" customFormat="1" ht="16.5">
       <c r="A7" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F7" s="4">
         <v>4</v>
@@ -1806,34 +1966,34 @@
         <v>200</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:12" customFormat="1" ht="16.5">
       <c r="A8" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F8" s="4">
         <v>5</v>
@@ -1842,34 +2002,34 @@
         <v>200</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" customFormat="1" ht="16.5">
       <c r="A9" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F9" s="4">
         <v>6</v>
@@ -1878,34 +2038,34 @@
         <v>200</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:12" customFormat="1" ht="16.5">
       <c r="A10" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F10" s="4">
         <v>7</v>
@@ -1914,1168 +2074,1430 @@
         <v>200</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="27">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="40.5">
       <c r="A11" s="1" t="s">
-        <v>126</v>
+        <v>328</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>101</v>
+        <v>311</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>125</v>
+        <v>312</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>124</v>
+        <v>352</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>91</v>
+        <v>326</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>123</v>
+        <v>313</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>122</v>
+        <v>327</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="40.5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="27">
       <c r="A12" s="1" t="s">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>101</v>
+        <v>311</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>119</v>
+        <v>314</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>118</v>
+        <v>315</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4">
-        <v>272</v>
+        <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>91</v>
+        <v>326</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>117</v>
+        <v>316</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="27">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>114</v>
+        <v>331</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>101</v>
+        <v>311</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>113</v>
+        <v>317</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F13" s="4"/>
+        <v>318</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
       <c r="G13" s="4">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>91</v>
+        <v>298</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>111</v>
+        <v>319</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>110</v>
+        <v>335</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="40.5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>108</v>
+        <v>332</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>101</v>
+        <v>320</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>107</v>
+        <v>321</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="7">
-        <v>176</v>
+        <v>318</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4">
+        <v>248</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>91</v>
+        <v>298</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>105</v>
+        <v>319</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>104</v>
+        <v>335</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="1" customFormat="1">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>102</v>
+        <v>333</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>101</v>
+        <v>320</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>100</v>
+        <v>322</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="7">
-        <v>120</v>
+        <v>318</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3</v>
+      </c>
+      <c r="G15" s="4">
+        <v>236</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>91</v>
+        <v>298</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>98</v>
+        <v>319</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>97</v>
+        <v>335</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="1" customFormat="1">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>243</v>
+        <v>334</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>101</v>
+        <v>320</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>242</v>
+        <v>323</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="7">
-        <v>228</v>
+        <v>318</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F16" s="4">
+        <v>4</v>
+      </c>
+      <c r="G16" s="4">
+        <v>248</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>91</v>
+        <v>298</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>240</v>
+        <v>319</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" ht="27">
+        <v>338</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>149</v>
+        <v>344</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>101</v>
+        <v>324</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>150</v>
+        <v>343</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F17" s="4"/>
+        <v>318</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F17" s="4">
+        <v>5</v>
+      </c>
       <c r="G17" s="4">
-        <v>104</v>
+        <v>288</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>91</v>
+        <v>298</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>153</v>
+        <v>338</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="1" customFormat="1">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="1" customFormat="1" ht="27">
       <c r="A18" s="1" t="s">
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>251</v>
+        <v>125</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>250</v>
+        <v>124</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="7">
-        <v>512</v>
+      <c r="G18" s="4">
+        <v>52</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>249</v>
+        <v>123</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="1" customFormat="1">
+        <v>122</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="1" customFormat="1" ht="40.5">
       <c r="A19" s="1" t="s">
-        <v>247</v>
+        <v>120</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>246</v>
+        <v>119</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4">
-        <v>64</v>
+        <v>272</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>245</v>
+        <v>116</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="1" customFormat="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="1" customFormat="1" ht="27">
       <c r="A20" s="1" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="F20" s="4"/>
-      <c r="G20" s="7">
-        <v>64</v>
+      <c r="G20" s="4">
+        <v>84</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="1" customFormat="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="1" customFormat="1" ht="40.5">
       <c r="A21" s="1" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="4">
-        <v>122</v>
+      <c r="G21" s="7">
+        <v>176</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1">
       <c r="A22" s="1" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="4">
-        <v>76</v>
+      <c r="G22" s="7">
+        <v>120</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="1" customFormat="1">
       <c r="A23" s="1" t="s">
-        <v>127</v>
+        <v>240</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>129</v>
+        <v>238</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="4">
-        <v>64</v>
+      <c r="G23" s="7">
+        <v>228</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>130</v>
+        <v>237</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="1" customFormat="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" ht="27">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" ht="27">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="1" customFormat="1">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>249</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>36</v>
+        <v>248</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>37</v>
+        <v>247</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="4">
-        <v>16</v>
+      <c r="G25" s="7">
+        <v>512</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="1" customFormat="1" ht="27">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="1" customFormat="1">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>244</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>162</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="4">
-        <v>32</v>
+      <c r="G27" s="7">
+        <v>64</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="1" customFormat="1" ht="27">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="1" customFormat="1">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>158</v>
+        <v>353</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="1" customFormat="1" ht="27">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="1" customFormat="1">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>167</v>
+        <v>353</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="1" customFormat="1">
-      <c r="A30" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>74</v>
+      <c r="A30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="5"/>
+        <v>129</v>
+      </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4">
-        <v>24</v>
-      </c>
-      <c r="H30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>69</v>
+        <v>130</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="1" customFormat="1">
-      <c r="A31" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>61</v>
+      <c r="A31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="5"/>
+        <v>29</v>
+      </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4">
-        <v>192</v>
-      </c>
-      <c r="H31" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="1" customFormat="1" ht="270">
+        <v>30</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="1" customFormat="1" ht="27">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>170</v>
+        <v>37</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4">
-        <v>80</v>
-      </c>
-      <c r="H32" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="H32" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="I32" s="3" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="1" customFormat="1" ht="27">
       <c r="A33" s="1" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F33" s="4">
-        <v>8</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F33" s="4"/>
       <c r="G33" s="4">
-        <v>16</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>156</v>
+        <v>128</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>199</v>
+        <v>160</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="1" customFormat="1">
       <c r="A34" s="1" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4">
-        <v>160</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="1" customFormat="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="1" customFormat="1" ht="27">
       <c r="A35" s="1" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>203</v>
+        <v>52</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4">
-        <v>32</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>16</v>
+        <v>80</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="1" customFormat="1" ht="27">
       <c r="A36" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>206</v>
+        <v>57</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4">
-        <v>164</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>16</v>
+        <v>136</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="1" customFormat="1">
-      <c r="A37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>22</v>
+      <c r="A37" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>209</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E37" s="5"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4">
-        <v>189</v>
+        <v>24</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="1" customFormat="1">
-      <c r="A38" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>83</v>
+      <c r="A38" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>212</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E38" s="5"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="L38" s="5"/>
-    </row>
-    <row r="39" spans="1:12" s="1" customFormat="1" ht="310.5">
+        <v>65</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="1" customFormat="1" ht="270">
       <c r="A39" s="1" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="L39" s="5"/>
-    </row>
-    <row r="40" spans="1:12" s="1" customFormat="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="1" customFormat="1" ht="27">
       <c r="A40" s="1" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F40" s="4"/>
+        <v>195</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F40" s="4">
+        <v>8</v>
+      </c>
       <c r="G40" s="4">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="L40" s="5"/>
-    </row>
-    <row r="41" spans="1:12" s="1" customFormat="1" ht="27">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="1" customFormat="1">
       <c r="A41" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4">
         <v>160</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="L41" s="5"/>
-    </row>
-    <row r="42" spans="1:12" s="1" customFormat="1" ht="40.5">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="1" customFormat="1">
       <c r="A42" s="1" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="L42" s="5"/>
-    </row>
-    <row r="43" spans="1:12" s="1" customFormat="1" ht="40.5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="1" customFormat="1" ht="27">
       <c r="A43" s="1" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>179</v>
+        <v>15</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="L43" s="5"/>
-    </row>
-    <row r="44" spans="1:12" s="1" customFormat="1" ht="27">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="1" customFormat="1">
       <c r="A44" s="1" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>185</v>
+        <v>23</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>186</v>
+        <v>24</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" s="1" customFormat="1" ht="27">
+        <v>208</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="1" customFormat="1">
       <c r="A45" s="1" t="s">
-        <v>187</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>190</v>
+        <v>88</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" s="1" customFormat="1">
+        <v>211</v>
+      </c>
+      <c r="L45" s="5"/>
+    </row>
+    <row r="46" spans="1:12" s="1" customFormat="1" ht="310.5">
       <c r="A46" s="1" t="s">
-        <v>191</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>192</v>
+        <v>86</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>253</v>
+        <v>174</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="27">
+        <v>214</v>
+      </c>
+      <c r="L46" s="5"/>
+    </row>
+    <row r="47" spans="1:12" s="1" customFormat="1">
       <c r="A47" s="1" t="s">
-        <v>254</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>256</v>
+        <v>82</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E47" s="1"/>
+        <v>215</v>
+      </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>258</v>
+        <v>174</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>259</v>
+        <v>81</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>260</v>
+        <v>216</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>261</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="L47" s="5"/>
     </row>
     <row r="48" spans="1:12" s="1" customFormat="1" ht="27">
       <c r="A48" s="1" t="s">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>255</v>
+        <v>13</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4">
         <v>160</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>265</v>
+        <v>174</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>268</v>
+        <v>220</v>
+      </c>
+      <c r="L48" s="5"/>
+    </row>
+    <row r="49" spans="1:12" s="1" customFormat="1" ht="40.5">
+      <c r="A49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4">
+        <v>128</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L49" s="5"/>
+    </row>
+    <row r="50" spans="1:12" s="1" customFormat="1" ht="40.5">
+      <c r="A50" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4">
+        <v>96</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="L50" s="5"/>
+    </row>
+    <row r="51" spans="1:12" s="1" customFormat="1" ht="27">
+      <c r="A51" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4">
+        <v>192</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="1" customFormat="1" ht="27">
+      <c r="A52" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4">
+        <v>149</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="1" customFormat="1">
+      <c r="A53" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4">
+        <v>104</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="27">
+      <c r="A54" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4">
+        <v>111</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="1" customFormat="1" ht="27">
+      <c r="A55" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4">
+        <v>160</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="1" customFormat="1">
+      <c r="A56" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16">
+        <v>280</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3103,21 +3525,21 @@
         <v>2024</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="14" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C13" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3130,7 +3552,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <sheetData/>
